--- a/Chapter01/Pivoting.xlsx
+++ b/Chapter01/Pivoting.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10909"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Curt\Desktop\Exercise Files\Chapter01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scarstruck/Git/excel_pivot_tables/Chapter01/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5230DB3B-1F1A-5E4D-A73A-CAF4D4763C6F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="13840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -17,7 +18,7 @@
   </sheets>
   <calcPr calcId="152511"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId3"/>
+    <pivotCache cacheId="14" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="12">
   <si>
     <t>Year</t>
   </si>
@@ -69,7 +70,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -99,13 +100,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,7 +128,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Curt" refreshedDate="41303.957270486113" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Curt" refreshedDate="41303.957270486113" createdVersion="5" refreshedVersion="5" minRefreshableVersion="3" recordCount="32" xr:uid="{00000000-000A-0000-FFFF-FFFF0D000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Table1"/>
   </cacheSource>
@@ -361,8 +365,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:F7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable2" cacheId="14" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="5" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:F17" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="4">
     <pivotField axis="axisRow" showAll="0">
       <items count="3">
@@ -371,7 +375,7 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField axis="axisCol" showAll="0">
+    <pivotField axis="axisRow" showAll="0">
       <items count="5">
         <item x="0"/>
         <item x="1"/>
@@ -380,25 +384,64 @@
         <item t="default"/>
       </items>
     </pivotField>
-    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
-  <rowFields count="1">
+  <rowFields count="2">
+    <field x="1"/>
     <field x="0"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="13">
     <i>
       <x/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i>
       <x v="1"/>
     </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="1"/>
+    <field x="2"/>
   </colFields>
   <colItems count="5">
     <i>
@@ -425,18 +468,21 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0">
-  <autoFilter ref="A1:D33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:D33" totalsRowShown="0">
+  <autoFilter ref="A1:D33" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="Year"/>
-    <tableColumn id="2" name="Quarter"/>
-    <tableColumn id="3" name="Region"/>
-    <tableColumn id="4" name="Customers"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Year"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quarter"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Region"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Customers"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium20" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -704,22 +750,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A3:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="5.7109375" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.6640625" customWidth="1"/>
+    <col min="4" max="4" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.6640625" customWidth="1"/>
+    <col min="6" max="6" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
@@ -727,83 +781,283 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-      <c r="E4">
-        <v>4</v>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>2012</v>
+        <v>1</v>
       </c>
       <c r="B5" s="3">
+        <v>813</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1248</v>
+      </c>
+      <c r="D5" s="3">
+        <v>681</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1017</v>
+      </c>
+      <c r="F5" s="3">
+        <v>3759</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B6" s="3">
+        <v>485</v>
+      </c>
+      <c r="C6" s="3">
+        <v>611</v>
+      </c>
+      <c r="D6" s="3">
+        <v>526</v>
+      </c>
+      <c r="E6" s="3">
+        <v>310</v>
+      </c>
+      <c r="F6" s="3">
         <v>1932</v>
       </c>
-      <c r="C5" s="3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B7" s="3">
+        <v>328</v>
+      </c>
+      <c r="C7" s="3">
+        <v>637</v>
+      </c>
+      <c r="D7" s="3">
+        <v>155</v>
+      </c>
+      <c r="E7" s="3">
+        <v>707</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1827</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>2</v>
+      </c>
+      <c r="B8" s="3">
+        <v>761</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1098</v>
+      </c>
+      <c r="D8" s="3">
+        <v>853</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1046</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3758</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B9" s="3">
+        <v>549</v>
+      </c>
+      <c r="C9" s="3">
+        <v>651</v>
+      </c>
+      <c r="D9" s="3">
+        <v>399</v>
+      </c>
+      <c r="E9" s="3">
+        <v>376</v>
+      </c>
+      <c r="F9" s="3">
         <v>1975</v>
       </c>
-      <c r="D5" s="3">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B10" s="3">
+        <v>212</v>
+      </c>
+      <c r="C10" s="3">
+        <v>447</v>
+      </c>
+      <c r="D10" s="3">
+        <v>454</v>
+      </c>
+      <c r="E10" s="3">
+        <v>670</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>3</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1309</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1277</v>
+      </c>
+      <c r="D11" s="3">
+        <v>770</v>
+      </c>
+      <c r="E11" s="3">
+        <v>819</v>
+      </c>
+      <c r="F11" s="3">
+        <v>4175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B12" s="3">
+        <v>729</v>
+      </c>
+      <c r="C12" s="3">
+        <v>635</v>
+      </c>
+      <c r="D12" s="3">
+        <v>156</v>
+      </c>
+      <c r="E12" s="3">
+        <v>515</v>
+      </c>
+      <c r="F12" s="3">
         <v>2035</v>
       </c>
-      <c r="E5" s="3">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B13" s="3">
+        <v>580</v>
+      </c>
+      <c r="C13" s="3">
+        <v>642</v>
+      </c>
+      <c r="D13" s="3">
+        <v>614</v>
+      </c>
+      <c r="E13" s="3">
+        <v>304</v>
+      </c>
+      <c r="F13" s="3">
+        <v>2140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>4</v>
+      </c>
+      <c r="B14" s="3">
+        <v>584</v>
+      </c>
+      <c r="C14" s="3">
+        <v>644</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1346</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1089</v>
+      </c>
+      <c r="F14" s="3">
+        <v>3663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="4">
+        <v>2012</v>
+      </c>
+      <c r="B15" s="3">
+        <v>418</v>
+      </c>
+      <c r="C15" s="3">
+        <v>390</v>
+      </c>
+      <c r="D15" s="3">
+        <v>622</v>
+      </c>
+      <c r="E15" s="3">
+        <v>500</v>
+      </c>
+      <c r="F15" s="3">
         <v>1930</v>
       </c>
-      <c r="F5" s="3">
-        <v>7872</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>2013</v>
-      </c>
-      <c r="B6" s="3">
-        <v>1827</v>
-      </c>
-      <c r="C6" s="3">
-        <v>1783</v>
-      </c>
-      <c r="D6" s="3">
-        <v>2140</v>
-      </c>
-      <c r="E6" s="3">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>2013</v>
+      </c>
+      <c r="B16" s="3">
+        <v>166</v>
+      </c>
+      <c r="C16" s="3">
+        <v>254</v>
+      </c>
+      <c r="D16" s="3">
+        <v>724</v>
+      </c>
+      <c r="E16" s="3">
+        <v>589</v>
+      </c>
+      <c r="F16" s="3">
         <v>1733</v>
       </c>
-      <c r="F6" s="3">
-        <v>7483</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3">
-        <v>3759</v>
-      </c>
-      <c r="C7" s="3">
-        <v>3758</v>
-      </c>
-      <c r="D7" s="3">
-        <v>4175</v>
-      </c>
-      <c r="E7" s="3">
-        <v>3663</v>
-      </c>
-      <c r="F7" s="3">
+      <c r="B17" s="3">
+        <v>3467</v>
+      </c>
+      <c r="C17" s="3">
+        <v>4267</v>
+      </c>
+      <c r="D17" s="3">
+        <v>3650</v>
+      </c>
+      <c r="E17" s="3">
+        <v>3971</v>
+      </c>
+      <c r="F17" s="3">
         <v>15355</v>
       </c>
     </row>
@@ -813,21 +1067,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" customWidth="1"/>
+    <col min="4" max="4" width="12.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -841,7 +1095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2012</v>
       </c>
@@ -855,7 +1109,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2012</v>
       </c>
@@ -869,7 +1123,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2012</v>
       </c>
@@ -883,7 +1137,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2012</v>
       </c>
@@ -897,7 +1151,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2012</v>
       </c>
@@ -911,7 +1165,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2012</v>
       </c>
@@ -925,7 +1179,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>2012</v>
       </c>
@@ -939,7 +1193,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>2012</v>
       </c>
@@ -953,7 +1207,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>2012</v>
       </c>
@@ -967,7 +1221,7 @@
         <v>635</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -981,7 +1235,7 @@
         <v>729</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2012</v>
       </c>
@@ -995,7 +1249,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -1009,7 +1263,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2012</v>
       </c>
@@ -1023,7 +1277,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -1037,7 +1291,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>2012</v>
       </c>
@@ -1051,7 +1305,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>2012</v>
       </c>
@@ -1065,7 +1319,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2013</v>
       </c>
@@ -1079,7 +1333,7 @@
         <v>637</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2013</v>
       </c>
@@ -1093,7 +1347,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2013</v>
       </c>
@@ -1107,7 +1361,7 @@
         <v>707</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2013</v>
       </c>
@@ -1121,7 +1375,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>2013</v>
       </c>
@@ -1135,7 +1389,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>2013</v>
       </c>
@@ -1149,7 +1403,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>2013</v>
       </c>
@@ -1163,7 +1417,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1177,7 +1431,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2013</v>
       </c>
@@ -1191,7 +1445,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2013</v>
       </c>
@@ -1205,7 +1459,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>2013</v>
       </c>
@@ -1219,7 +1473,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>2013</v>
       </c>
@@ -1233,7 +1487,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -1247,7 +1501,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -1261,7 +1515,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2013</v>
       </c>
@@ -1275,7 +1529,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2013</v>
       </c>
